--- a/examples/sources/data/unsolved/to_schedule/2019-04-24.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-24.xlsx
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>43579</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>43579</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>43579</v>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>43579</v>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
         <v>43579</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
         <v>43579</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="2">
         <v>43579</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" s="2">
         <v>43579</v>
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" s="2">
         <v>43579</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -5673,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O114" s="2">
         <v>43579</v>
@@ -5755,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116" s="2">
         <v>43579</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118" s="2">
         <v>43579</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" s="2">
         <v>43579</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -6470,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O133" s="2">
         <v>43579</v>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" s="2">
         <v>43579</v>
